--- a/Linux/DeviceDrivers/SampleCode(important)/1.如何实现一个简单的kset.xlsx
+++ b/Linux/DeviceDrivers/SampleCode(important)/1.如何实现一个简单的kset.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1D51C-711C-4373-9A35-FB0B3CD9AF8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
   <si>
     <t>1. 需要修改或添加的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,18 +497,6 @@
     <t>static struct kobj_type ylm_kobj_ktype = {</t>
   </si>
   <si>
-    <t>.sysfs_ops</t>
-  </si>
-  <si>
-    <t>= &amp;ylm_kobj_sysfs_ops,</t>
-  </si>
-  <si>
-    <t>.release</t>
-  </si>
-  <si>
-    <t>= ylm_kobj_release,</t>
-  </si>
-  <si>
     <t>static struct attribute val_attribute = {</t>
   </si>
   <si>
@@ -610,81 +599,90 @@
     <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_ADD);</t>
   </si>
   <si>
+    <t>goto sysfs_create_file_error;</t>
+  </si>
+  <si>
+    <t>sysfs_create_file_error:</t>
+  </si>
+  <si>
+    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_REMOVE);</t>
+  </si>
+  <si>
+    <t>kobject_del(&amp;ylmkobject-&gt;kobj);</t>
+  </si>
+  <si>
+    <t>kobject_add_error:</t>
+  </si>
+  <si>
+    <t>kobject_put(&amp;ylmkobject-&gt;kobj);</t>
+  </si>
+  <si>
+    <t>ylmkobject_error:</t>
+  </si>
+  <si>
+    <t>ylm_unregister(&amp;ylm_kset_child2);</t>
+  </si>
+  <si>
+    <t>ylm_kset_child2_error:</t>
+  </si>
+  <si>
+    <t>ylm_unregister(&amp;ylm_kset_child1);</t>
+  </si>
+  <si>
+    <t>ylm_kset_child1_error:</t>
+  </si>
+  <si>
+    <t>kset_unregister(ylm_kset);</t>
+  </si>
+  <si>
+    <t>ylm_kset_error:</t>
+  </si>
+  <si>
+    <t>config YLM_KSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tristate 'YLM Kset'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylm kset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_BUS) += ylmkset.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_KSET) += ylm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># YLM Kset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_YLM_KSET=m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.sysfs_ops = &amp;ylm_kobj_sysfs_ops,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.release = ylm_kobj_release,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>error = sysfs_create_file(&amp;ylmkobject-&gt;kobj, &amp;val_attribute);</t>
-  </si>
-  <si>
-    <t>goto sysfs_create_file_error;</t>
-  </si>
-  <si>
-    <t>sysfs_create_file_error:</t>
-  </si>
-  <si>
-    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_REMOVE);</t>
-  </si>
-  <si>
-    <t>kobject_del(&amp;ylmkobject-&gt;kobj);</t>
-  </si>
-  <si>
-    <t>kobject_add_error:</t>
-  </si>
-  <si>
-    <t>kobject_put(&amp;ylmkobject-&gt;kobj);</t>
-  </si>
-  <si>
-    <t>ylmkobject_error:</t>
-  </si>
-  <si>
-    <t>ylm_unregister(&amp;ylm_kset_child2);</t>
-  </si>
-  <si>
-    <t>ylm_kset_child2_error:</t>
-  </si>
-  <si>
-    <t>ylm_unregister(&amp;ylm_kset_child1);</t>
-  </si>
-  <si>
-    <t>ylm_kset_child1_error:</t>
-  </si>
-  <si>
-    <t>kset_unregister(ylm_kset);</t>
-  </si>
-  <si>
-    <t>ylm_kset_error:</t>
-  </si>
-  <si>
-    <t>config YLM_KSET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tristate 'YLM Kset'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylm kset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_BUS) += ylmkset.o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_KSET) += ylm/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># YLM Kset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_YLM_KSET=m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,11 +745,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,9 +831,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,6 +883,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,344 +1076,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>85</v>
       </c>
@@ -1384,69 +1426,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,344 +1501,344 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D208"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="AK36" sqref="AK36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="AQ150" sqref="AQ150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>137</v>
       </c>
@@ -1804,7 +1846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>139</v>
       </c>
@@ -1812,543 +1854,537 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
-      <c r="C140" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="C141" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="D142" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="D143" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D154" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D155" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D160" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D161" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="3:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="168" spans="3:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D168" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="3:4">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="3:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="3:4">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D174" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D175" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
-      <c r="C181" s="1" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
-      <c r="C182" s="1" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="1" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
-      <c r="C184" s="1" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="1" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
-      <c r="C186" s="1" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3">
-      <c r="C188" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3">
-      <c r="C190" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3">
-      <c r="B191" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C192" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="2:3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
-      <c r="C199" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3">
-      <c r="C200" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3">
-      <c r="C201" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>39</v>
       </c>
@@ -2360,36 +2396,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2399,21 +2435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2423,19 +2459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2447,21 +2483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2471,36 +2507,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Linux/DeviceDrivers/SampleCode(important)/1.如何实现一个简单的kset.xlsx
+++ b/Linux/DeviceDrivers/SampleCode(important)/1.如何实现一个简单的kset.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1D51C-711C-4373-9A35-FB0B3CD9AF8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26193DF3-68DF-418C-97E2-E708A576B84B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,232 +449,234 @@
     <t>/* define ylm_kobj_sysfs_ops */</t>
   </si>
   <si>
+    <t>struct ylm_kobject *yobj = container_of(kobj, struct ylm_kobject, kobj);</t>
+  </si>
+  <si>
+    <t>return sprintf(buf, "%d\n", yobj-&gt;val);</t>
+  </si>
+  <si>
+    <t>static ssize_t ylm_attr_store(struct kobject *kobj, struct attribute *attr, const char *buf, size_t count)</t>
+  </si>
+  <si>
+    <t>sscanf(buf, "%d", &amp;yobj-&gt;val);</t>
+  </si>
+  <si>
+    <t>return count;</t>
+  </si>
+  <si>
+    <t>static const struct sysfs_ops ylm_kobj_sysfs_ops = {</t>
+  </si>
+  <si>
+    <t>.show</t>
+  </si>
+  <si>
+    <t>= ylm_attr_show,</t>
+  </si>
+  <si>
+    <t>.store</t>
+  </si>
+  <si>
+    <t>= ylm_attr_store,</t>
+  </si>
+  <si>
+    <t>/* define ylm_kobj_ktype */</t>
+  </si>
+  <si>
+    <t>static void ylm_kobj_release(struct kobject *kobj)</t>
+  </si>
+  <si>
+    <t>printk(KERN_NOTICE "%s, kobj(%s, %p), yobj(%p)\n", __FUNCTION__, kobject_name(kobj), kobj, yobj);</t>
+  </si>
+  <si>
+    <t>kfree(yobj);</t>
+  </si>
+  <si>
+    <t>static struct kobj_type ylm_kobj_ktype = {</t>
+  </si>
+  <si>
+    <t>.name = "val",</t>
+  </si>
+  <si>
+    <t>.mode = 0664,</t>
+  </si>
+  <si>
+    <t>/* define ylm_kset_uevent_ops */</t>
+  </si>
+  <si>
+    <t>static int ylm_kset_uevent_filter(struct kset *kset, struct kobject *kobj)</t>
+  </si>
+  <si>
+    <t>printk(KERN_NOTICE "%s\n", __FUNCTION__);</t>
+  </si>
+  <si>
+    <t>const char *ylm_kset_uevent_name(struct kset *kset, struct kobject *kobj)</t>
+  </si>
+  <si>
+    <t>return kobj-&gt;name;</t>
+  </si>
+  <si>
+    <t>int ylm_kset_uevent(struct kset *kset, struct kobject *kobj,struct kobj_uevent_env *env)</t>
+  </si>
+  <si>
+    <t>int i = 0;</t>
+  </si>
+  <si>
+    <t>while (i &lt; env-&gt;envp_idx) {</t>
+  </si>
+  <si>
+    <t>printk(KERN_NOTICE "\t%s\n", env-&gt;envp[i]);</t>
+  </si>
+  <si>
+    <t>i++;</t>
+  </si>
+  <si>
+    <t>static const struct kset_uevent_ops ylm_kset_uevent_ops = {</t>
+  </si>
+  <si>
+    <t>.filter = ylm_kset_uevent_filter,</t>
+  </si>
+  <si>
+    <t>.name = ylm_kset_uevent_name,</t>
+  </si>
+  <si>
+    <t>.uevent = ylm_kset_uevent,</t>
+  </si>
+  <si>
+    <t>printk(KERN_NOTICE "%s\n", __func__);</t>
+  </si>
+  <si>
+    <t>ylm_kset = kset_create_and_add("ylm", &amp;ylm_kset_uevent_ops, NULL);</t>
+  </si>
+  <si>
+    <t>if (!ylm_kset) {</t>
+  </si>
+  <si>
+    <t>ret = -ENOMEM;</t>
+  </si>
+  <si>
+    <t>goto ylm_kset_error;</t>
+  </si>
+  <si>
+    <t>error = ylm_register(&amp;ylm_kset_child1);</t>
+  </si>
+  <si>
+    <t>ret = error;</t>
+  </si>
+  <si>
+    <t>goto ylm_kset_child1_error;</t>
+  </si>
+  <si>
+    <t>error = ylm_register(&amp;ylm_kset_child2);</t>
+  </si>
+  <si>
+    <t>goto ylm_kset_child2_error;</t>
+  </si>
+  <si>
+    <t>ylmkobject = kzalloc(sizeof(struct ylm_kobject), GFP_KERNEL);</t>
+  </si>
+  <si>
+    <t>if (!ylmkobject) {</t>
+  </si>
+  <si>
+    <t>goto ylmkobject_error;</t>
+  </si>
+  <si>
+    <t>kobject_init(&amp;ylmkobject-&gt;kobj, &amp;ylm_kobj_ktype);</t>
+  </si>
+  <si>
+    <t>error = kobject_add(&amp;ylmkobject-&gt;kobj, &amp;ylm_kset_child1.kset-&gt;kobj, "ylmkobject");</t>
+  </si>
+  <si>
+    <t>goto kobject_add_error;</t>
+  </si>
+  <si>
+    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_ADD);</t>
+  </si>
+  <si>
+    <t>goto sysfs_create_file_error;</t>
+  </si>
+  <si>
+    <t>sysfs_create_file_error:</t>
+  </si>
+  <si>
+    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_REMOVE);</t>
+  </si>
+  <si>
+    <t>kobject_del(&amp;ylmkobject-&gt;kobj);</t>
+  </si>
+  <si>
+    <t>kobject_add_error:</t>
+  </si>
+  <si>
+    <t>kobject_put(&amp;ylmkobject-&gt;kobj);</t>
+  </si>
+  <si>
+    <t>ylmkobject_error:</t>
+  </si>
+  <si>
+    <t>ylm_unregister(&amp;ylm_kset_child2);</t>
+  </si>
+  <si>
+    <t>ylm_kset_child2_error:</t>
+  </si>
+  <si>
+    <t>ylm_unregister(&amp;ylm_kset_child1);</t>
+  </si>
+  <si>
+    <t>ylm_kset_child1_error:</t>
+  </si>
+  <si>
+    <t>kset_unregister(ylm_kset);</t>
+  </si>
+  <si>
+    <t>ylm_kset_error:</t>
+  </si>
+  <si>
+    <t>config YLM_KSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tristate 'YLM Kset'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylm kset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_BUS) += ylmkset.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_KSET) += ylm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># YLM Kset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_YLM_KSET=m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.sysfs_ops = &amp;ylm_kobj_sysfs_ops,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.release = ylm_kobj_release,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error = sysfs_create_file(&amp;ylmkobject-&gt;kobj, &amp;val_attribute);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>static ssize_t ylm_attr_show(struct kobject *kobj, struct attribute *attr, char *buf)</t>
-  </si>
-  <si>
-    <t>struct ylm_kobject *yobj = container_of(kobj, struct ylm_kobject, kobj);</t>
-  </si>
-  <si>
-    <t>return sprintf(buf, "%d\n", yobj-&gt;val);</t>
-  </si>
-  <si>
-    <t>static ssize_t ylm_attr_store(struct kobject *kobj, struct attribute *attr, const char *buf, size_t count)</t>
-  </si>
-  <si>
-    <t>sscanf(buf, "%d", &amp;yobj-&gt;val);</t>
-  </si>
-  <si>
-    <t>return count;</t>
-  </si>
-  <si>
-    <t>static const struct sysfs_ops ylm_kobj_sysfs_ops = {</t>
-  </si>
-  <si>
-    <t>.show</t>
-  </si>
-  <si>
-    <t>= ylm_attr_show,</t>
-  </si>
-  <si>
-    <t>.store</t>
-  </si>
-  <si>
-    <t>= ylm_attr_store,</t>
-  </si>
-  <si>
-    <t>/* define ylm_kobj_ktype */</t>
-  </si>
-  <si>
-    <t>static void ylm_kobj_release(struct kobject *kobj)</t>
-  </si>
-  <si>
-    <t>printk(KERN_NOTICE "%s, kobj(%s, %p), yobj(%p)\n", __FUNCTION__, kobject_name(kobj), kobj, yobj);</t>
-  </si>
-  <si>
-    <t>kfree(yobj);</t>
-  </si>
-  <si>
-    <t>static struct kobj_type ylm_kobj_ktype = {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>static struct attribute val_attribute = {</t>
-  </si>
-  <si>
-    <t>.name = "val",</t>
-  </si>
-  <si>
-    <t>.mode = 0664,</t>
-  </si>
-  <si>
-    <t>/* define ylm_kset_uevent_ops */</t>
-  </si>
-  <si>
-    <t>static int ylm_kset_uevent_filter(struct kset *kset, struct kobject *kobj)</t>
-  </si>
-  <si>
-    <t>printk(KERN_NOTICE "%s\n", __FUNCTION__);</t>
-  </si>
-  <si>
-    <t>const char *ylm_kset_uevent_name(struct kset *kset, struct kobject *kobj)</t>
-  </si>
-  <si>
-    <t>return kobj-&gt;name;</t>
-  </si>
-  <si>
-    <t>int ylm_kset_uevent(struct kset *kset, struct kobject *kobj,struct kobj_uevent_env *env)</t>
-  </si>
-  <si>
-    <t>int i = 0;</t>
-  </si>
-  <si>
-    <t>while (i &lt; env-&gt;envp_idx) {</t>
-  </si>
-  <si>
-    <t>printk(KERN_NOTICE "\t%s\n", env-&gt;envp[i]);</t>
-  </si>
-  <si>
-    <t>i++;</t>
-  </si>
-  <si>
-    <t>static const struct kset_uevent_ops ylm_kset_uevent_ops = {</t>
-  </si>
-  <si>
-    <t>.filter = ylm_kset_uevent_filter,</t>
-  </si>
-  <si>
-    <t>.name = ylm_kset_uevent_name,</t>
-  </si>
-  <si>
-    <t>.uevent = ylm_kset_uevent,</t>
-  </si>
-  <si>
-    <t>printk(KERN_NOTICE "%s\n", __func__);</t>
-  </si>
-  <si>
-    <t>ylm_kset = kset_create_and_add("ylm", &amp;ylm_kset_uevent_ops, NULL);</t>
-  </si>
-  <si>
-    <t>if (!ylm_kset) {</t>
-  </si>
-  <si>
-    <t>ret = -ENOMEM;</t>
-  </si>
-  <si>
-    <t>goto ylm_kset_error;</t>
-  </si>
-  <si>
-    <t>error = ylm_register(&amp;ylm_kset_child1);</t>
-  </si>
-  <si>
-    <t>ret = error;</t>
-  </si>
-  <si>
-    <t>goto ylm_kset_child1_error;</t>
-  </si>
-  <si>
-    <t>error = ylm_register(&amp;ylm_kset_child2);</t>
-  </si>
-  <si>
-    <t>goto ylm_kset_child2_error;</t>
-  </si>
-  <si>
-    <t>ylmkobject = kzalloc(sizeof(struct ylm_kobject), GFP_KERNEL);</t>
-  </si>
-  <si>
-    <t>if (!ylmkobject) {</t>
-  </si>
-  <si>
-    <t>goto ylmkobject_error;</t>
-  </si>
-  <si>
-    <t>kobject_init(&amp;ylmkobject-&gt;kobj, &amp;ylm_kobj_ktype);</t>
-  </si>
-  <si>
-    <t>error = kobject_add(&amp;ylmkobject-&gt;kobj, &amp;ylm_kset_child1.kset-&gt;kobj, "ylmkobject");</t>
-  </si>
-  <si>
-    <t>goto kobject_add_error;</t>
-  </si>
-  <si>
-    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_ADD);</t>
-  </si>
-  <si>
-    <t>goto sysfs_create_file_error;</t>
-  </si>
-  <si>
-    <t>sysfs_create_file_error:</t>
-  </si>
-  <si>
-    <t>kobject_uevent(&amp;ylmkobject-&gt;kobj, KOBJ_REMOVE);</t>
-  </si>
-  <si>
-    <t>kobject_del(&amp;ylmkobject-&gt;kobj);</t>
-  </si>
-  <si>
-    <t>kobject_add_error:</t>
-  </si>
-  <si>
-    <t>kobject_put(&amp;ylmkobject-&gt;kobj);</t>
-  </si>
-  <si>
-    <t>ylmkobject_error:</t>
-  </si>
-  <si>
-    <t>ylm_unregister(&amp;ylm_kset_child2);</t>
-  </si>
-  <si>
-    <t>ylm_kset_child2_error:</t>
-  </si>
-  <si>
-    <t>ylm_unregister(&amp;ylm_kset_child1);</t>
-  </si>
-  <si>
-    <t>ylm_kset_child1_error:</t>
-  </si>
-  <si>
-    <t>kset_unregister(ylm_kset);</t>
-  </si>
-  <si>
-    <t>ylm_kset_error:</t>
-  </si>
-  <si>
-    <t>config YLM_KSET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tristate 'YLM Kset'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylm kset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_BUS) += ylmkset.o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_KSET) += ylm/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># YLM Kset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_YLM_KSET=m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.sysfs_ops = &amp;ylm_kobj_sysfs_ops,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.release = ylm_kobj_release,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error = sysfs_create_file(&amp;ylmkobject-&gt;kobj, &amp;val_attribute);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +707,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -729,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1504,888 +1515,888 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="AQ150" sqref="AQ150"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AW46" sqref="AW46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C169" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C170" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C176" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2410,12 +2421,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2436,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2460,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2508,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2537,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2547,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
